--- a/data/trans_dic/P3A_R1-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R1-Provincia-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,9%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,42%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,11%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,67%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,71%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,24%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,47%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,76%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>15,09; 25,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,64; 35,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>25,32; 36,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>19,32; 30,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>10,88; 19,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,9; 13,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>9,6; 18,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>22,48; 31,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>14,29; 20,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,02; 23,05</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>18,86; 26,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>22,29; 29,55</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,65%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,37%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,43%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>21,62; 30,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>20,5; 28,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>25,58; 33,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>34,74; 45,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>11,11; 17,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>10,01; 16,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>12,49; 19,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>26,87; 34,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>17,29; 22,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>16,31; 21,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>20,02; 25,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>32,22; 38,96</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,4%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,98%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,47%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,45%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,03%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,6%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>14,25; 23,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>21,13; 30,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>35,05; 45,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>27,98; 38,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>4,96; 10,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>7,24; 14,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>17,81; 26,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>24,11; 32,21</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>10,61; 16,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>15,01; 21,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>27,3; 34,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>27,54; 33,76</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,52%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,19%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,62%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>16,61; 25,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>24,59; 34,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>26,83; 37,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>26,0; 40,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>15,01; 22,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>9,44; 16,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>9,98; 17,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>8,47; 19,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>16,58; 22,5</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>18,09; 24,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>19,25; 25,39</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>16,06; 26,09</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,7%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,27%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,03%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,26%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,4%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>14,66; 26,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>14,22; 24,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>29,46; 42,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>18,4; 28,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>6,86; 15,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>10,63; 20,37</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>13,98; 24,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>10,11; 24,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>12,51; 19,34</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>13,7; 20,89</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>23,24; 31,68</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>14,09; 24,38</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,1%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,6%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,23%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,27%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,75%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>13,1; 22,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>25,29; 36,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>20,28; 31,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>34,57; 45,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>9,36; 17,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>14,07; 23,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>8,27; 16,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>32,81; 42,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>12,46; 18,27</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>20,59; 28,46</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>15,18; 21,85</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>35,19; 42,13</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,56%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,1%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,97%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,06%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,0%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,25%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>20,12; 26,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>24,04; 31,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>25,57; 32,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>24,2; 31,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>8,42; 13,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>14,65; 21,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>19,81; 26,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>9,08; 24,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>14,92; 19,09</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>20,16; 24,73</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>23,3; 28,37</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>14,09; 26,43</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,93%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,02%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,69%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,24%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>15,65; 21,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>26,44; 33,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>32,86; 39,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>5,79; 17,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>7,69; 11,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>14,6; 19,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>19,14; 24,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>3,81; 6,44</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>12,19; 15,73</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>21,06; 25,34</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>26,48; 31,06</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>5,4; 11,5</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,91%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,46%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,41%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,95%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,57%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,33%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,26%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>19,52; 22,43</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>25,79; 29,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>30,9; 34,2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>21,0; 29,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>10,89; 13,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>13,77; 16,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,19; 19,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>16,17; 21,64</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>15,46; 17,27</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>20,1; 22,11</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>24,29; 26,38</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>19,85; 25,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P3A_R1-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R1-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,09; 25,15</t>
+          <t>15,72; 25,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,64; 35,05</t>
+          <t>24,35; 36,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,32; 36,9</t>
+          <t>25,53; 37,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,32; 30,6</t>
+          <t>19,32; 30,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,88; 19,83</t>
+          <t>10,7; 19,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,9; 13,23</t>
+          <t>5,68; 12,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,6; 18,47</t>
+          <t>9,74; 18,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,48; 31,23</t>
+          <t>22,66; 31,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,29; 20,96</t>
+          <t>14,38; 20,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,02; 23,05</t>
+          <t>15,98; 23,01</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>18,86; 26,11</t>
+          <t>19,11; 26,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,29; 29,55</t>
+          <t>22,26; 29,12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,62; 30,0</t>
+          <t>21,55; 29,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,5; 28,02</t>
+          <t>20,52; 28,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,58; 33,43</t>
+          <t>25,37; 33,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,74; 45,52</t>
+          <t>34,71; 45,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,11; 17,31</t>
+          <t>11,2; 17,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,01; 16,32</t>
+          <t>10,15; 16,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,49; 19,0</t>
+          <t>12,82; 19,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>26,87; 34,3</t>
+          <t>27,27; 34,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,29; 22,11</t>
+          <t>17,22; 22,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>16,31; 21,24</t>
+          <t>16,07; 21,22</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,02; 25,0</t>
+          <t>20,02; 25,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>32,22; 38,96</t>
+          <t>32,06; 38,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,25; 23,8</t>
+          <t>14,79; 23,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,13; 30,45</t>
+          <t>20,67; 30,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,05; 45,54</t>
+          <t>35,36; 45,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,98; 38,51</t>
+          <t>28,5; 38,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,96; 10,77</t>
+          <t>5,32; 11,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,24; 14,49</t>
+          <t>7,4; 14,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,81; 26,96</t>
+          <t>17,67; 27,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,11; 32,21</t>
+          <t>24,38; 32,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,61; 16,16</t>
+          <t>10,54; 16,04</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,01; 21,06</t>
+          <t>15,17; 20,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>27,3; 34,54</t>
+          <t>27,13; 34,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>27,54; 33,76</t>
+          <t>27,25; 33,93</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,61; 25,07</t>
+          <t>16,55; 25,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,59; 34,8</t>
+          <t>24,93; 35,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,83; 37,46</t>
+          <t>26,84; 36,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,0; 40,01</t>
+          <t>26,2; 39,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,01; 22,75</t>
+          <t>14,63; 22,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,44; 16,45</t>
+          <t>9,27; 16,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,98; 17,22</t>
+          <t>9,88; 16,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,47; 19,13</t>
+          <t>8,6; 18,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,58; 22,5</t>
+          <t>16,75; 22,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>18,09; 24,23</t>
+          <t>18,11; 24,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,25; 25,39</t>
+          <t>19,24; 25,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,06; 26,09</t>
+          <t>15,55; 26,13</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,66; 26,37</t>
+          <t>15,91; 27,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>14,22; 24,62</t>
+          <t>13,53; 25,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29,46; 42,73</t>
+          <t>29,35; 42,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,4; 28,76</t>
+          <t>18,35; 28,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,86; 15,42</t>
+          <t>7,08; 16,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,63; 20,37</t>
+          <t>10,36; 19,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,98; 24,3</t>
+          <t>13,68; 23,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,11; 24,51</t>
+          <t>9,23; 23,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,51; 19,34</t>
+          <t>12,42; 19,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,7; 20,89</t>
+          <t>13,59; 20,91</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>23,24; 31,68</t>
+          <t>22,82; 31,97</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,09; 24,38</t>
+          <t>12,94; 24,02</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,1; 22,63</t>
+          <t>13,31; 22,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>25,29; 36,46</t>
+          <t>24,81; 36,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,28; 31,1</t>
+          <t>20,04; 31,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>34,57; 45,53</t>
+          <t>34,39; 45,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,36; 17,1</t>
+          <t>9,25; 17,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,07; 23,36</t>
+          <t>13,98; 23,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,27; 16,04</t>
+          <t>8,11; 15,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>32,81; 42,11</t>
+          <t>32,38; 42,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>12,46; 18,27</t>
+          <t>12,34; 18,52</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>20,59; 28,46</t>
+          <t>20,53; 28,28</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,18; 21,85</t>
+          <t>14,95; 21,74</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>35,19; 42,13</t>
+          <t>34,99; 42,21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,12; 26,88</t>
+          <t>19,98; 27,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>24,04; 31,29</t>
+          <t>23,83; 31,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>25,57; 32,82</t>
+          <t>25,51; 32,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,2; 31,82</t>
+          <t>24,39; 31,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,42; 13,28</t>
+          <t>8,41; 13,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,65; 21,2</t>
+          <t>14,84; 20,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,81; 26,08</t>
+          <t>20,1; 26,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,08; 24,72</t>
+          <t>9,63; 24,84</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>14,92; 19,09</t>
+          <t>14,96; 19,23</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,16; 24,73</t>
+          <t>20,38; 25,06</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>23,3; 28,37</t>
+          <t>23,49; 28,36</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>14,09; 26,43</t>
+          <t>13,77; 26,68</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,65; 21,56</t>
+          <t>15,99; 21,85</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>26,44; 33,36</t>
+          <t>26,69; 33,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,86; 39,67</t>
+          <t>32,27; 39,44</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,79; 17,75</t>
+          <t>5,35; 18,08</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,69; 11,84</t>
+          <t>7,72; 11,84</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,6; 19,83</t>
+          <t>14,53; 20,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,14; 24,9</t>
+          <t>18,94; 24,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,44</t>
+          <t>3,86; 6,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,19; 15,73</t>
+          <t>12,3; 15,67</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>21,06; 25,34</t>
+          <t>21,16; 25,63</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>26,48; 31,06</t>
+          <t>26,47; 30,99</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>5,4; 11,5</t>
+          <t>5,86; 11,5</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>19,52; 22,43</t>
+          <t>19,39; 22,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>25,79; 29,14</t>
+          <t>25,89; 29,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>30,9; 34,2</t>
+          <t>30,85; 34,21</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>21,0; 29,72</t>
+          <t>21,19; 29,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,89; 13,16</t>
+          <t>10,9; 13,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>13,77; 16,28</t>
+          <t>13,57; 16,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>17,19; 19,88</t>
+          <t>17,28; 19,96</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,17; 21,64</t>
+          <t>16,28; 21,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>15,46; 17,27</t>
+          <t>15,51; 17,22</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>20,1; 22,11</t>
+          <t>20,02; 22,05</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>24,29; 26,38</t>
+          <t>24,19; 26,37</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>19,85; 25,19</t>
+          <t>20,2; 25,03</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente el/la entrevistado/a junto con su pareja</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>54323</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>86713</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>91389</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>77469</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>38721</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>25276</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>39463</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>77364</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>93044</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>111988</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>130852</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>154833</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>42926; 69675</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>71763; 106593</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>74992; 109285</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>60182; 94411</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>27802; 50708</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16311; 36794</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>28127; 52755</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>65639; 91440</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>76625; 110524</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>92979; 133905</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>111321; 153522</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>133821; 175045</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>124778</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>122203</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>146590</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>208941</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>71124</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>68570</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>81821</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>157180</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>195902</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>190773</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>228412</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>366121</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>106249; 145826</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>103533; 145213</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>126580; 167967</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>179957; 237616</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>56459; 88082</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>53187; 85117</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>66921; 102493</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>140429; 175907</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>171681; 223862</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>165221; 218192</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>204408; 258237</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>331284; 399349</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>59452</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>82741</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>128403</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>104026</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>26058</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>35697</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>74594</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>98969</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>85510</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>118437</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>202998</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>202995</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>47169; 75465</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>66993; 99228</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>112382; 145605</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>89898; 120116</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>17833; 37652</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>25221; 48768</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>59422; 91271</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>84802; 113464</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>68962; 104974</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>100915; 138165</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>177441; 227313</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>180734; 225080</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>73677</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>110790</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>117164</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>101257</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>68593</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>49290</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>50473</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>69194</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>142269</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>160080</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>167637</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>170451</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>59357; 90100</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>93232; 131581</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>98798; 135179</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>81889; 122425</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>54181; 83811</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>36055; 62435</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>38249; 65184</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>40896; 90340</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>122108; 163831</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>138183; 183344</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>145315; 193193</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>122586; 205941</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>42089</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>39998</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>76604</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>41625</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>22173</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>33006</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>40292</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>47515</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>64262</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>73005</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>116896</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>89140</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>32345; 55114</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>28776; 53268</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>61993; 90219</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>32710; 51688</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>14700; 33423</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>22743; 43856</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>29780; 51982</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>23886; 60860</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>51033; 78892</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>58742; 90369</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>97874; 137094</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>56569; 104969</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>47639</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>82466</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>65917</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>108544</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>35970</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>51780</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>31572</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>95534</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>83608</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>134246</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>97488</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>204078</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>36057; 61333</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>67975; 98878</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>52395; 81134</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>92723; 123438</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>25719; 48307</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>39150; 65289</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>22056; 42937</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>83232; 108378</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>67767; 101665</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>113735; 156655</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>79765; 115986</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>184306; 222315</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>144886</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>182620</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>190755</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>174609</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>67142</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>123569</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>158950</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>153210</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>212028</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>306188</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>349705</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>327819</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>122867; 167145</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>157939; 206257</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>167229; 215340</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>152281; 199028</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>53490; 84002</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>102960; 144796</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>138519; 182829</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>81756; 210953</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>187144; 240543</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>276536; 340038</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>315867; 381431</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>202956; 393207</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>439</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>138169</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>233217</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>280433</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>115759</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>74868</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>140944</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>179982</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>36363</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>213037</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>374161</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>460415</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>152122</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>118807; 162336</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>207953; 261822</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>251284; 307049</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>49714; 167959</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>60485; 92784</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>119456; 165367</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>156438; 203761</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>27725; 45701</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>187793; 239243</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>338694; 410267</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>424774; 497314</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>96421; 189338</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>881</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1034</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>997</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1162</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1046</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1368</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1671</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>2159</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>685012</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>940747</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1097255</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>932230</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>404648</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>528131</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>657148</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>735328</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1089661</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1468879</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1754403</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1667558</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>635310; 729493</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>886882; 993468</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1044449; 1158096</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>732759; 1022406</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>367940; 443267</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>482746; 572044</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>611538; 706442</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>604305; 803283</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1031181; 1145058</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1397854; 1539790</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1674992; 1826342</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1448600; 1794625</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>